--- a/static/data.xlsx
+++ b/static/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>admin</t>
   </si>
@@ -25,7 +25,7 @@
     <t>test1</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>admin123456</t>
   </si>
 </sst>
 </file>
@@ -402,13 +402,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>123344</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="C2">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
